--- a/UserDetails/userdetails.xlsx
+++ b/UserDetails/userdetails.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>FirstName</t>
   </si>
@@ -34,13 +34,19 @@
   </si>
   <si>
     <t>tararump@gmail.com</t>
+  </si>
+  <si>
+    <t>department</t>
+  </si>
+  <si>
+    <t>SCH</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -55,6 +61,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF222222"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -78,9 +90,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -383,10 +396,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -394,9 +407,10 @@
     <col min="1" max="1" width="12" customWidth="1"/>
     <col min="2" max="2" width="11.28515625" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
+    <col min="4" max="4" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -406,8 +420,11 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -416,6 +433,9 @@
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -423,6 +443,7 @@
     <hyperlink ref="C2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
